--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R2" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R3" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,7 +897,7 @@
         <v>131046829</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         <v>131046765</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>131046830</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>131046772</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046822</v>
+        <v>131047013</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1356,34 +1356,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401699</v>
+        <v>401631</v>
       </c>
       <c r="R8" t="n">
-        <v>6818070</v>
+        <v>6817903</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1425,14 +1430,19 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1452,10 +1462,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131047013</v>
+        <v>131046822</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1463,39 +1473,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401631</v>
+        <v>401699</v>
       </c>
       <c r="R9" t="n">
-        <v>6817903</v>
+        <v>6818070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1527,7 +1532,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1537,19 +1542,14 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:57</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>131046773</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046769</v>
+        <v>131046828</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1804,39 +1804,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>401575</v>
+        <v>401634</v>
       </c>
       <c r="R12" t="n">
-        <v>6817873</v>
+        <v>6817871</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1868,7 +1863,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1878,12 +1873,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:07</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1910,10 +1900,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046828</v>
+        <v>131046769</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,34 +1911,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401634</v>
+        <v>401575</v>
       </c>
       <c r="R13" t="n">
-        <v>6817871</v>
+        <v>6817873</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1980,7 +1975,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1990,7 +1985,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2017,10 +2017,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046771</v>
+        <v>131046709</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>83223</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,39 +2028,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401556</v>
+        <v>401646</v>
       </c>
       <c r="R14" t="n">
-        <v>6817954</v>
+        <v>6817967</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2092,7 +2087,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2102,12 +2097,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2134,10 +2124,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046709</v>
+        <v>131046771</v>
       </c>
       <c r="B15" t="n">
-        <v>83219</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2145,34 +2135,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401646</v>
+        <v>401556</v>
       </c>
       <c r="R15" t="n">
-        <v>6817967</v>
+        <v>6817954</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2204,7 +2199,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2214,7 +2209,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046708</v>
+        <v>131046724</v>
       </c>
       <c r="B16" t="n">
-        <v>83219</v>
+        <v>79275</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2252,21 +2252,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>401645</v>
+        <v>401635</v>
       </c>
       <c r="R16" t="n">
-        <v>6818016</v>
+        <v>6817874</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2348,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046724</v>
+        <v>131046708</v>
       </c>
       <c r="B17" t="n">
-        <v>79271</v>
+        <v>83223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>401635</v>
+        <v>401645</v>
       </c>
       <c r="R17" t="n">
-        <v>6817874</v>
+        <v>6818016</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2455,10 +2455,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046768</v>
+        <v>131046827</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2466,39 +2466,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>401346</v>
+        <v>401630</v>
       </c>
       <c r="R18" t="n">
-        <v>6818439</v>
+        <v>6817911</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2530,7 +2525,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2540,12 +2535,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:32</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Både färska och gamla ringhack på grov gammal tall</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2572,10 +2562,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046827</v>
+        <v>131046768</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2583,34 +2573,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>401630</v>
+        <v>401346</v>
       </c>
       <c r="R19" t="n">
-        <v>6817911</v>
+        <v>6818439</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2642,7 +2637,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2652,7 +2647,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Både färska och gamla ringhack på grov gammal tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047034</v>
+        <v>131046766</v>
       </c>
       <c r="B20" t="n">
-        <v>78642</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,34 +2690,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401597</v>
+        <v>401318</v>
       </c>
       <c r="R20" t="n">
-        <v>6817852</v>
+        <v>6818379</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2749,7 +2757,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2759,7 +2767,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2786,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046766</v>
+        <v>131047034</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>78646</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,42 +2810,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>401318</v>
+        <v>401597</v>
       </c>
       <c r="R21" t="n">
-        <v>6818379</v>
+        <v>6817852</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2864,7 +2869,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2874,12 +2879,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2909,7 +2909,7 @@
         <v>131046799</v>
       </c>
       <c r="B22" t="n">
-        <v>78251</v>
+        <v>78255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>131046831</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>131046833</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>131046832</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3334,10 +3334,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131047014</v>
+        <v>131046826</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3345,39 +3345,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401378</v>
+        <v>401647</v>
       </c>
       <c r="R26" t="n">
-        <v>6818082</v>
+        <v>6817965</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3409,7 +3404,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3419,19 +3414,14 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -3451,10 +3441,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046826</v>
+        <v>131047014</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3462,34 +3452,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401647</v>
+        <v>401378</v>
       </c>
       <c r="R27" t="n">
-        <v>6817965</v>
+        <v>6818082</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3521,7 +3516,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3531,14 +3526,19 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>131046770</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046830</v>
+        <v>131046772</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,34 +1132,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401538</v>
+        <v>401507</v>
       </c>
       <c r="R6" t="n">
-        <v>6818009</v>
+        <v>6818011</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1191,7 +1196,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1201,7 +1206,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1228,10 +1238,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046772</v>
+        <v>131046830</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,39 +1249,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401507</v>
+        <v>401538</v>
       </c>
       <c r="R7" t="n">
-        <v>6818011</v>
+        <v>6818009</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1303,7 +1308,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1313,12 +1318,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD7" t="b">

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -1345,10 +1345,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131047013</v>
+        <v>131046822</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1356,39 +1356,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401631</v>
+        <v>401699</v>
       </c>
       <c r="R8" t="n">
-        <v>6817903</v>
+        <v>6818070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1420,7 +1415,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1430,19 +1425,14 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:57</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1462,10 +1452,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046822</v>
+        <v>131047013</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1473,34 +1463,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401699</v>
+        <v>401631</v>
       </c>
       <c r="R9" t="n">
-        <v>6818070</v>
+        <v>6817903</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1532,7 +1527,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1542,14 +1537,19 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,34 +1580,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R10" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1649,7 +1654,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1676,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1687,39 +1697,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R11" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,7 +1756,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1761,12 +1766,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046724</v>
+        <v>131046708</v>
       </c>
       <c r="B16" t="n">
-        <v>79275</v>
+        <v>83223</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2252,21 +2252,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>401635</v>
+        <v>401645</v>
       </c>
       <c r="R16" t="n">
-        <v>6817874</v>
+        <v>6818016</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2348,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046708</v>
+        <v>131046724</v>
       </c>
       <c r="B17" t="n">
-        <v>83223</v>
+        <v>79275</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>401645</v>
+        <v>401635</v>
       </c>
       <c r="R17" t="n">
-        <v>6818016</v>
+        <v>6817874</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2455,10 +2455,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046827</v>
+        <v>131046768</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2466,34 +2466,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>401630</v>
+        <v>401346</v>
       </c>
       <c r="R18" t="n">
-        <v>6817911</v>
+        <v>6818439</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2525,7 +2530,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2535,7 +2540,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Både färska och gamla ringhack på grov gammal tall</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2562,10 +2572,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046768</v>
+        <v>131046827</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2573,39 +2583,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>401346</v>
+        <v>401630</v>
       </c>
       <c r="R19" t="n">
-        <v>6818439</v>
+        <v>6817911</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2637,7 +2642,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2647,12 +2652,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:32</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Både färska och gamla ringhack på grov gammal tall</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046766</v>
+        <v>131047034</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>78646</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,42 +2690,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6437</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401318</v>
+        <v>401597</v>
       </c>
       <c r="R20" t="n">
-        <v>6818379</v>
+        <v>6817852</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2757,7 +2749,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2767,12 +2759,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2799,10 +2786,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131047034</v>
+        <v>131046799</v>
       </c>
       <c r="B21" t="n">
-        <v>78646</v>
+        <v>78255</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2810,21 +2797,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2834,10 +2821,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>401597</v>
+        <v>401649</v>
       </c>
       <c r="R21" t="n">
-        <v>6817852</v>
+        <v>6818014</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2869,7 +2856,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2879,7 +2866,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2906,10 +2893,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046799</v>
+        <v>131046766</v>
       </c>
       <c r="B22" t="n">
-        <v>78255</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2917,34 +2904,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401649</v>
+        <v>401318</v>
       </c>
       <c r="R22" t="n">
-        <v>6818014</v>
+        <v>6818379</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2976,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2986,7 +2981,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,34 +3238,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R25" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3302,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3307,14 +3312,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3334,7 +3344,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046826</v>
+        <v>131046832</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3369,10 +3379,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401647</v>
+        <v>401350</v>
       </c>
       <c r="R26" t="n">
-        <v>6817965</v>
+        <v>6818162</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3414,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3414,7 +3424,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3441,10 +3451,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131047014</v>
+        <v>131046826</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3452,39 +3462,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401378</v>
+        <v>401647</v>
       </c>
       <c r="R27" t="n">
-        <v>6818082</v>
+        <v>6817965</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3516,7 +3521,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3526,19 +3531,14 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,39 +1580,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R10" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1644,7 +1639,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1654,12 +1649,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1697,34 +1687,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R11" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1766,7 +1761,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1793,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046828</v>
+        <v>131046769</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1804,34 +1804,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>401634</v>
+        <v>401575</v>
       </c>
       <c r="R12" t="n">
-        <v>6817871</v>
+        <v>6817873</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1863,7 +1868,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1873,7 +1878,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1900,10 +1910,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046769</v>
+        <v>131046828</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1911,39 +1921,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401575</v>
+        <v>401634</v>
       </c>
       <c r="R13" t="n">
-        <v>6817873</v>
+        <v>6817871</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1975,7 +1980,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1985,12 +1990,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:07</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047034</v>
+        <v>131046766</v>
       </c>
       <c r="B20" t="n">
-        <v>78646</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,34 +2690,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401597</v>
+        <v>401318</v>
       </c>
       <c r="R20" t="n">
-        <v>6817852</v>
+        <v>6818379</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2749,7 +2757,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2759,7 +2767,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2893,10 +2906,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046766</v>
+        <v>131047034</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>78646</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2904,42 +2917,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6437</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401318</v>
+        <v>401597</v>
       </c>
       <c r="R22" t="n">
-        <v>6818379</v>
+        <v>6817852</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2971,7 +2976,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,12 +2986,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD22" t="b">

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R2" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R3" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046772</v>
+        <v>131046830</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,39 +1132,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401507</v>
+        <v>401538</v>
       </c>
       <c r="R6" t="n">
-        <v>6818011</v>
+        <v>6818009</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1196,7 +1191,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1206,12 +1201,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1238,10 +1228,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046830</v>
+        <v>131046772</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1249,34 +1239,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401538</v>
+        <v>401507</v>
       </c>
       <c r="R7" t="n">
-        <v>6818009</v>
+        <v>6818011</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1308,7 +1303,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1318,7 +1313,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,34 +1580,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R10" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1649,7 +1654,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1676,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1687,39 +1697,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R11" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,7 +1756,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1761,12 +1766,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2455,10 +2455,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131046768</v>
+        <v>131046827</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2466,39 +2466,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>401346</v>
+        <v>401630</v>
       </c>
       <c r="R18" t="n">
-        <v>6818439</v>
+        <v>6817911</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2530,7 +2525,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:32</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2540,12 +2535,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:32</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Både färska och gamla ringhack på grov gammal tall</t>
+          <t>14:56</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2572,10 +2562,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131046827</v>
+        <v>131046768</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2583,34 +2573,39 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>401630</v>
+        <v>401346</v>
       </c>
       <c r="R19" t="n">
-        <v>6817911</v>
+        <v>6818439</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2642,7 +2637,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2652,7 +2647,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>15:32</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Både färska och gamla ringhack på grov gammal tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2799,10 +2799,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046799</v>
+        <v>131047034</v>
       </c>
       <c r="B21" t="n">
-        <v>78255</v>
+        <v>78646</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2810,21 +2810,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228579</v>
+        <v>6437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>401649</v>
+        <v>401597</v>
       </c>
       <c r="R21" t="n">
-        <v>6818014</v>
+        <v>6817852</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2906,10 +2906,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131047034</v>
+        <v>131046799</v>
       </c>
       <c r="B22" t="n">
-        <v>78646</v>
+        <v>78255</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2917,21 +2917,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401597</v>
+        <v>401649</v>
       </c>
       <c r="R22" t="n">
-        <v>6817852</v>
+        <v>6818014</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047014</v>
+        <v>131046826</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,39 +3238,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401378</v>
+        <v>401647</v>
       </c>
       <c r="R25" t="n">
-        <v>6818082</v>
+        <v>6817965</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3302,7 +3297,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3312,19 +3307,14 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3344,10 +3334,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3355,34 +3345,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R26" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3414,7 +3409,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3424,14 +3419,19 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046826</v>
+        <v>131046832</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401647</v>
+        <v>401350</v>
       </c>
       <c r="R27" t="n">
-        <v>6817965</v>
+        <v>6818162</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3531,7 +3531,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD27" t="b">

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R2" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R3" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,39 +1580,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R10" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1644,7 +1639,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1654,12 +1649,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1697,34 +1687,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R11" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1766,7 +1761,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1793,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131046769</v>
+        <v>131046828</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1804,39 +1804,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>401575</v>
+        <v>401634</v>
       </c>
       <c r="R12" t="n">
-        <v>6817873</v>
+        <v>6817871</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1868,7 +1863,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1878,12 +1873,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:07</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1910,10 +1900,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131046828</v>
+        <v>131046769</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,34 +1911,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401634</v>
+        <v>401575</v>
       </c>
       <c r="R13" t="n">
-        <v>6817871</v>
+        <v>6817873</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1980,7 +1975,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1990,7 +1985,12 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2017,10 +2017,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046709</v>
+        <v>131046771</v>
       </c>
       <c r="B14" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,34 +2028,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401646</v>
+        <v>401556</v>
       </c>
       <c r="R14" t="n">
-        <v>6817967</v>
+        <v>6817954</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2087,7 +2092,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2097,7 +2102,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2124,10 +2134,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046771</v>
+        <v>131046709</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2135,39 +2145,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401556</v>
+        <v>401646</v>
       </c>
       <c r="R15" t="n">
-        <v>6817954</v>
+        <v>6817967</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2199,7 +2204,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2209,12 +2214,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046766</v>
+        <v>131047034</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>78646</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,42 +2690,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6437</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401318</v>
+        <v>401597</v>
       </c>
       <c r="R20" t="n">
-        <v>6818379</v>
+        <v>6817852</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2757,7 +2749,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2767,12 +2759,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2799,10 +2786,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131047034</v>
+        <v>131046766</v>
       </c>
       <c r="B21" t="n">
-        <v>78646</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2810,34 +2797,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6437</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>401597</v>
+        <v>401318</v>
       </c>
       <c r="R21" t="n">
-        <v>6817852</v>
+        <v>6818379</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2869,7 +2864,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2879,7 +2874,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3334,10 +3334,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131047014</v>
+        <v>131046832</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3345,39 +3345,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401378</v>
+        <v>401350</v>
       </c>
       <c r="R26" t="n">
-        <v>6818082</v>
+        <v>6818162</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3409,7 +3404,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3419,19 +3414,14 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -3451,10 +3441,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3462,34 +3452,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R27" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3521,7 +3516,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3531,14 +3526,19 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R2" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R3" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046830</v>
+        <v>131046772</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,34 +1132,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401538</v>
+        <v>401507</v>
       </c>
       <c r="R6" t="n">
-        <v>6818009</v>
+        <v>6818011</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1191,7 +1196,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1201,7 +1206,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1228,10 +1238,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046772</v>
+        <v>131046830</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1239,39 +1249,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401507</v>
+        <v>401538</v>
       </c>
       <c r="R7" t="n">
-        <v>6818011</v>
+        <v>6818009</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1303,7 +1308,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1313,12 +1318,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1345,10 +1345,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131046822</v>
+        <v>131047013</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1356,34 +1356,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401699</v>
+        <v>401631</v>
       </c>
       <c r="R8" t="n">
-        <v>6818070</v>
+        <v>6817903</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1415,7 +1420,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1425,14 +1430,19 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1452,10 +1462,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131047013</v>
+        <v>131046822</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1463,39 +1473,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401631</v>
+        <v>401699</v>
       </c>
       <c r="R9" t="n">
-        <v>6817903</v>
+        <v>6818070</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1527,7 +1532,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1537,19 +1542,14 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:57</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,34 +1580,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R10" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1649,7 +1654,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1676,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1687,39 +1697,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R11" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,7 +1756,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1761,12 +1766,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2017,10 +2017,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131046771</v>
+        <v>131046709</v>
       </c>
       <c r="B14" t="n">
-        <v>57884</v>
+        <v>83223</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2028,39 +2028,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401556</v>
+        <v>401646</v>
       </c>
       <c r="R14" t="n">
-        <v>6817954</v>
+        <v>6817967</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2092,7 +2087,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2102,12 +2097,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:12</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2134,10 +2124,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131046709</v>
+        <v>131046771</v>
       </c>
       <c r="B15" t="n">
-        <v>83223</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2145,34 +2135,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401646</v>
+        <v>401556</v>
       </c>
       <c r="R15" t="n">
-        <v>6817967</v>
+        <v>6817954</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2204,7 +2199,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2214,7 +2209,12 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:12</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046708</v>
+        <v>131046724</v>
       </c>
       <c r="B16" t="n">
-        <v>83223</v>
+        <v>79275</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2252,21 +2252,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>401645</v>
+        <v>401635</v>
       </c>
       <c r="R16" t="n">
-        <v>6818016</v>
+        <v>6817874</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2348,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046724</v>
+        <v>131046708</v>
       </c>
       <c r="B17" t="n">
-        <v>79275</v>
+        <v>83223</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>401635</v>
+        <v>401645</v>
       </c>
       <c r="R17" t="n">
-        <v>6817874</v>
+        <v>6818016</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3227,7 +3227,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046826</v>
+        <v>131046832</v>
       </c>
       <c r="B25" t="n">
         <v>79243</v>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401647</v>
+        <v>401350</v>
       </c>
       <c r="R25" t="n">
-        <v>6817965</v>
+        <v>6818162</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3334,7 +3334,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046832</v>
+        <v>131046826</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3369,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401350</v>
+        <v>401647</v>
       </c>
       <c r="R26" t="n">
-        <v>6818162</v>
+        <v>6817965</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R2" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R3" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1345,10 +1345,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131047013</v>
+        <v>131046822</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1356,39 +1356,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401631</v>
+        <v>401699</v>
       </c>
       <c r="R8" t="n">
-        <v>6817903</v>
+        <v>6818070</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1420,7 +1415,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1430,19 +1425,14 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:57</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:49</t>
         </is>
       </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1462,10 +1452,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131046822</v>
+        <v>131047013</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1473,34 +1463,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401699</v>
+        <v>401631</v>
       </c>
       <c r="R9" t="n">
-        <v>6818070</v>
+        <v>6817903</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1532,7 +1527,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1542,14 +1537,19 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:49</t>
+          <t>14:57</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,39 +1580,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R10" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1644,7 +1639,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1654,12 +1649,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1697,34 +1687,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R11" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1766,7 +1761,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -3013,7 +3013,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046831</v>
+        <v>131046833</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>401378</v>
+        <v>401322</v>
       </c>
       <c r="R23" t="n">
-        <v>6818089</v>
+        <v>6818367</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3120,7 +3120,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046833</v>
+        <v>131046831</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>401322</v>
+        <v>401378</v>
       </c>
       <c r="R24" t="n">
-        <v>6818367</v>
+        <v>6818089</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,34 +3238,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R25" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3302,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3307,14 +3312,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3334,7 +3344,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046826</v>
+        <v>131046832</v>
       </c>
       <c r="B26" t="n">
         <v>79243</v>
@@ -3369,10 +3379,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401647</v>
+        <v>401350</v>
       </c>
       <c r="R26" t="n">
-        <v>6817965</v>
+        <v>6818162</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3414,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3414,7 +3424,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3441,10 +3451,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131047014</v>
+        <v>131046826</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3452,39 +3462,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401378</v>
+        <v>401647</v>
       </c>
       <c r="R27" t="n">
-        <v>6818082</v>
+        <v>6817965</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3516,7 +3521,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3526,19 +3531,14 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R2" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R3" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -3013,7 +3013,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131046833</v>
+        <v>131046831</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -3048,10 +3048,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>401322</v>
+        <v>401378</v>
       </c>
       <c r="R23" t="n">
-        <v>6818367</v>
+        <v>6818089</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3120,7 +3120,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131046831</v>
+        <v>131046833</v>
       </c>
       <c r="B24" t="n">
         <v>79243</v>
@@ -3155,10 +3155,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>401378</v>
+        <v>401322</v>
       </c>
       <c r="R24" t="n">
-        <v>6818089</v>
+        <v>6818367</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047014</v>
+        <v>131046832</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,39 +3238,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401378</v>
+        <v>401350</v>
       </c>
       <c r="R25" t="n">
-        <v>6818082</v>
+        <v>6818162</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3302,7 +3297,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3312,19 +3307,14 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3344,10 +3334,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3355,34 +3345,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R26" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3414,7 +3409,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3424,14 +3419,19 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R2" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R3" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -897,7 +897,7 @@
         <v>131046829</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131046772</v>
+        <v>131046830</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1132,39 +1132,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401507</v>
+        <v>401538</v>
       </c>
       <c r="R6" t="n">
-        <v>6818011</v>
+        <v>6818009</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1196,7 +1191,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1206,12 +1201,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Färska ringhack (tall)</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1238,10 +1228,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131046830</v>
+        <v>131046772</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1249,34 +1239,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401538</v>
+        <v>401507</v>
       </c>
       <c r="R7" t="n">
-        <v>6818009</v>
+        <v>6818011</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1308,7 +1303,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1318,7 +1313,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack (tall)</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1348,7 +1348,7 @@
         <v>131046822</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>131046828</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>131046709</v>
       </c>
       <c r="B14" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>131046724</v>
       </c>
       <c r="B16" t="n">
-        <v>79275</v>
+        <v>79276</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         <v>131046708</v>
       </c>
       <c r="B17" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>131046827</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         <v>131047034</v>
       </c>
       <c r="B20" t="n">
-        <v>78646</v>
+        <v>78647</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>131046799</v>
       </c>
       <c r="B22" t="n">
-        <v>78255</v>
+        <v>78256</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         <v>131046831</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>131046833</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,34 +3238,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R25" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3302,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3307,14 +3312,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3334,10 +3344,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131047014</v>
+        <v>131046832</v>
       </c>
       <c r="B26" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3345,39 +3355,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401378</v>
+        <v>401350</v>
       </c>
       <c r="R26" t="n">
-        <v>6818082</v>
+        <v>6818162</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3409,7 +3414,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3419,19 +3424,14 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="b">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>131046826</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R2" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R3" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,34 +1580,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R10" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1639,7 +1644,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1649,7 +1654,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1676,10 +1686,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1687,39 +1697,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R11" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1751,7 +1756,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1761,12 +1766,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046724</v>
+        <v>131046708</v>
       </c>
       <c r="B16" t="n">
-        <v>79276</v>
+        <v>83224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2252,21 +2252,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>401635</v>
+        <v>401645</v>
       </c>
       <c r="R16" t="n">
-        <v>6817874</v>
+        <v>6818016</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2348,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046708</v>
+        <v>131046724</v>
       </c>
       <c r="B17" t="n">
-        <v>83224</v>
+        <v>79276</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>401645</v>
+        <v>401635</v>
       </c>
       <c r="R17" t="n">
-        <v>6818016</v>
+        <v>6817874</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131047034</v>
+        <v>131046799</v>
       </c>
       <c r="B20" t="n">
-        <v>78647</v>
+        <v>78256</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,21 +2690,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6437</v>
+        <v>228579</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2714,10 +2714,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401597</v>
+        <v>401649</v>
       </c>
       <c r="R20" t="n">
-        <v>6817852</v>
+        <v>6818014</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2786,10 +2786,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131046766</v>
+        <v>131047034</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>78647</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2797,42 +2797,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6437</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>401318</v>
+        <v>401597</v>
       </c>
       <c r="R21" t="n">
-        <v>6818379</v>
+        <v>6817852</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2864,7 +2856,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2874,12 +2866,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2906,10 +2893,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046799</v>
+        <v>131046766</v>
       </c>
       <c r="B22" t="n">
-        <v>78256</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2917,34 +2904,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401649</v>
+        <v>401318</v>
       </c>
       <c r="R22" t="n">
-        <v>6818014</v>
+        <v>6818379</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2976,7 +2971,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2986,7 +2981,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131047014</v>
+        <v>131046832</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,39 +3238,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401378</v>
+        <v>401350</v>
       </c>
       <c r="R25" t="n">
-        <v>6818082</v>
+        <v>6818162</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3302,7 +3297,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3312,19 +3307,14 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3344,7 +3334,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046832</v>
+        <v>131046826</v>
       </c>
       <c r="B26" t="n">
         <v>79244</v>
@@ -3379,10 +3369,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401350</v>
+        <v>401647</v>
       </c>
       <c r="R26" t="n">
-        <v>6818162</v>
+        <v>6817965</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3414,7 +3404,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3424,7 +3414,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3451,10 +3441,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131046826</v>
+        <v>131047014</v>
       </c>
       <c r="B27" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3462,34 +3452,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401647</v>
+        <v>401378</v>
       </c>
       <c r="R27" t="n">
-        <v>6817965</v>
+        <v>6818082</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3521,7 +3516,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3531,14 +3526,19 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>

--- a/artfynd/A 59303-2025 artfynd.xlsx
+++ b/artfynd/A 59303-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131046825</v>
+        <v>131046824</v>
       </c>
       <c r="B2" t="n">
         <v>79244</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401650</v>
+        <v>401653</v>
       </c>
       <c r="R2" t="n">
-        <v>6818017</v>
+        <v>6818054</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131046824</v>
+        <v>131046825</v>
       </c>
       <c r="B3" t="n">
         <v>79244</v>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401653</v>
+        <v>401650</v>
       </c>
       <c r="R3" t="n">
-        <v>6818054</v>
+        <v>6818017</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1569,10 +1569,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131046773</v>
+        <v>131046823</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1580,39 +1580,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401346</v>
+        <v>401661</v>
       </c>
       <c r="R10" t="n">
-        <v>6818162</v>
+        <v>6818064</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1644,7 +1639,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:23</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1654,12 +1649,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:23</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (gran)</t>
+          <t>14:50</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1686,10 +1676,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131046823</v>
+        <v>131046773</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1697,34 +1687,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401661</v>
+        <v>401346</v>
       </c>
       <c r="R11" t="n">
-        <v>6818064</v>
+        <v>6818162</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1756,7 +1751,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1766,7 +1761,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:50</t>
+          <t>15:23</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (gran)</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131046708</v>
+        <v>131046724</v>
       </c>
       <c r="B16" t="n">
-        <v>83224</v>
+        <v>79276</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2252,21 +2252,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2276,10 +2276,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>401645</v>
+        <v>401635</v>
       </c>
       <c r="R16" t="n">
-        <v>6818016</v>
+        <v>6817874</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2348,10 +2348,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131046724</v>
+        <v>131046708</v>
       </c>
       <c r="B17" t="n">
-        <v>79276</v>
+        <v>83224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2359,21 +2359,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2383,10 +2383,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>401635</v>
+        <v>401645</v>
       </c>
       <c r="R17" t="n">
-        <v>6817874</v>
+        <v>6818016</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>14:58</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2679,10 +2679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131046799</v>
+        <v>131046766</v>
       </c>
       <c r="B20" t="n">
-        <v>78256</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2690,34 +2690,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>228579</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>401649</v>
+        <v>401318</v>
       </c>
       <c r="R20" t="n">
-        <v>6818014</v>
+        <v>6818379</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2749,7 +2757,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2759,7 +2767,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>14:52</t>
+          <t>15:29</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack (tall)</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2893,10 +2906,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131046766</v>
+        <v>131046799</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>78256</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2904,42 +2917,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>228579</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401318</v>
+        <v>401649</v>
       </c>
       <c r="R22" t="n">
-        <v>6818379</v>
+        <v>6818014</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2971,7 +2976,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:29</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2981,12 +2986,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:29</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack (tall)</t>
+          <t>14:52</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3227,10 +3227,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131046832</v>
+        <v>131047014</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,34 +3238,39 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>401350</v>
+        <v>401378</v>
       </c>
       <c r="R25" t="n">
-        <v>6818162</v>
+        <v>6818082</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3297,7 +3302,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3307,14 +3312,19 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>15:24</t>
+          <t>15:21</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
         </is>
       </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" t="b">
         <v>0</v>
@@ -3334,7 +3344,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131046826</v>
+        <v>131046832</v>
       </c>
       <c r="B26" t="n">
         <v>79244</v>
@@ -3369,10 +3379,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401647</v>
+        <v>401350</v>
       </c>
       <c r="R26" t="n">
-        <v>6817965</v>
+        <v>6818162</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3404,7 +3414,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3414,7 +3424,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>15:24</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3441,10 +3451,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131047014</v>
+        <v>131046826</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3452,39 +3462,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Blomkällan, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401378</v>
+        <v>401647</v>
       </c>
       <c r="R27" t="n">
-        <v>6818082</v>
+        <v>6817965</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3516,7 +3521,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>15:21</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3526,19 +3531,14 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>15:21</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Troliga spår efter tretåig hackspett (barkfälkning)</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="b">
         <v>0</v>
